--- a/biology/Zoologie/Faiditus/Faiditus.xlsx
+++ b/biology/Zoologie/Faiditus/Faiditus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faiditus est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faiditus est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 08/05/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 08/05/2024) :
 Faiditus acuminatus (Keyserling, 1891)
 Faiditus affinis (O. Pickard-Cambridge, 1880)
 Faiditus alticeps (Keyserling, 1891)
@@ -603,7 +619,7 @@
 Faiditus woytkowskii (Exline &amp; Levi, 1962)
 Faiditus yacuiensis (González &amp; Carmen, 1996)
 Faiditus yutoensis (González &amp; Carmen, 1996)
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Faiditus crassipatellaris (Wunderlich, 1988)</t>
         </is>
       </c>
@@ -632,10 +648,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1884 dans les Theridiidae. Il est placé en synonymie avec Theridion par Simon en 1894[3] puis placé en synonymie avec Argyrodes par Levi et Levi en 1962[4]. Il est relevé de synonymie par Agnarsson en 2004[5].
-Bellinda[6] a été placé en synonymie par Agnarsson en 2004[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1884 dans les Theridiidae. Il est placé en synonymie avec Theridion par Simon en 1894 puis placé en synonymie avec Argyrodes par Levi et Levi en 1962. Il est relevé de synonymie par Agnarsson en 2004.
+Bellinda a été placé en synonymie par Agnarsson en 2004.
 </t>
         </is>
       </c>
@@ -664,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1884 : Die Spinnen Amerikas II. Theridiidae. Nürnberg, vol. 1, p. 1-222  (texte intégral).</t>
         </is>
